--- a/2.square_plate/Data/square_plate_meta.xlsx
+++ b/2.square_plate/Data/square_plate_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyobrien/GitHub/danger.signal/2.square_plate/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462300E-0A27-8349-BC46-E514FA2F02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5B575-78A1-D644-88E6-CBF779CDA449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36740" yWindow="3180" windowWidth="30260" windowHeight="24460" xr2:uid="{E7FD9DFA-7337-D84F-8228-134BB315505A}"/>
+    <workbookView xWindow="33820" yWindow="1560" windowWidth="30260" windowHeight="20120" xr2:uid="{E7FD9DFA-7337-D84F-8228-134BB315505A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="53">
   <si>
     <t>Sample</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>Time_h</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Background_1</t>
+  </si>
+  <si>
+    <t>Background_2</t>
+  </si>
+  <si>
+    <t>Background_3</t>
   </si>
 </sst>
 </file>
@@ -569,12 +581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4DD056-A32A-6C46-AF0B-F0A1AA3DDA16}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E384" sqref="E384"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1098,44 +1113,44 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1143,10 +1158,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
@@ -1157,10 +1172,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -1171,10 +1186,10 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -1185,13 +1200,13 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,13 +1214,13 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,13 +1228,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1227,10 +1242,10 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
@@ -1241,10 +1256,10 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>42</v>
@@ -1255,10 +1270,10 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
@@ -1269,13 +1284,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,13 +1298,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,13 +1312,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,10 +1326,10 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>43</v>
@@ -1325,10 +1340,10 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>43</v>
@@ -1339,10 +1354,10 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>43</v>
@@ -1353,13 +1368,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,13 +1382,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,13 +1396,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1395,10 +1410,10 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>44</v>
@@ -1409,10 +1424,10 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
@@ -1423,10 +1438,10 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>44</v>
@@ -1437,13 +1452,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,13 +1466,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,13 +1480,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,10 +1494,10 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
         <v>45</v>
@@ -1493,10 +1508,10 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -1507,10 +1522,10 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
         <v>45</v>
@@ -1521,13 +1536,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,13 +1550,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C69">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1549,13 +1564,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C70">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,10 +1578,10 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
         <v>46</v>
@@ -1577,10 +1592,10 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
         <v>46</v>
@@ -1591,10 +1606,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C73">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
         <v>46</v>
@@ -1602,86 +1617,86 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1689,13 +1704,13 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1703,13 +1718,13 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1717,13 +1732,13 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1731,13 +1746,13 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1745,13 +1760,13 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1759,13 +1774,13 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1773,13 +1788,13 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1787,13 +1802,13 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,13 +1816,13 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1815,13 +1830,13 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1829,13 +1844,13 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1843,13 +1858,13 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1857,13 +1872,13 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C92">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1871,13 +1886,13 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,13 +1900,13 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1899,13 +1914,13 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1913,13 +1928,13 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1927,13 +1942,13 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C97">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1941,13 +1956,13 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C98">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -1955,13 +1970,13 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C99">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1969,13 +1984,13 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C100">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,13 +1998,13 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C101">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1997,13 +2012,13 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C102">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2011,13 +2026,13 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2025,13 +2040,13 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104">
         <v>25</v>
       </c>
-      <c r="C104">
-        <v>31</v>
-      </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2039,13 +2054,13 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105">
         <v>26</v>
       </c>
-      <c r="C105">
-        <v>32</v>
-      </c>
       <c r="D105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2053,13 +2068,13 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106">
         <v>27</v>
       </c>
-      <c r="C106">
-        <v>33</v>
-      </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2067,13 +2082,13 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107">
         <v>28</v>
       </c>
-      <c r="C107">
-        <v>34</v>
-      </c>
       <c r="D107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2081,13 +2096,13 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108">
         <v>29</v>
       </c>
-      <c r="C108">
-        <v>35</v>
-      </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2095,139 +2110,139 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109">
         <v>30</v>
       </c>
-      <c r="C109">
-        <v>36</v>
-      </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D111" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2235,13 +2250,13 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2249,13 +2264,13 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2263,13 +2278,13 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2277,13 +2292,13 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2291,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2305,13 +2320,13 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2319,13 +2334,13 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2333,13 +2348,13 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2347,13 +2362,13 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C127">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2361,13 +2376,13 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C128">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2375,13 +2390,13 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C129">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2389,13 +2404,13 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C130">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2403,13 +2418,13 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C131">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2417,13 +2432,13 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C132">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2431,13 +2446,13 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C133">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2445,13 +2460,13 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C134">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2459,13 +2474,13 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C135">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2473,13 +2488,13 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C136">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2487,13 +2502,13 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C137">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -2501,13 +2516,13 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2515,13 +2530,13 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C139">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2529,13 +2544,13 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C140">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2543,13 +2558,13 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C141">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2557,13 +2572,13 @@
         <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C142">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2571,13 +2586,13 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C143">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -2585,13 +2600,13 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C144">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -2599,181 +2614,181 @@
         <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C145">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D146" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D148" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D150" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C153">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D153" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D154" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C155">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C157">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D157" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -2781,13 +2796,13 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -2795,13 +2810,13 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C159">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -2809,13 +2824,13 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C160">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -2823,13 +2838,13 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -2837,13 +2852,13 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -2851,13 +2866,13 @@
         <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C163">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,13 +2880,13 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C164">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -2879,13 +2894,13 @@
         <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C165">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -2893,13 +2908,13 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C166">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -2907,13 +2922,13 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C167">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2921,13 +2936,13 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C168">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -2935,13 +2950,13 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C169">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -2949,13 +2964,13 @@
         <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C170">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -2963,13 +2978,13 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C171">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -2977,13 +2992,13 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C172">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -2991,13 +3006,13 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C173">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3005,13 +3020,13 @@
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C174">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3019,13 +3034,13 @@
         <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C175">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3033,13 +3048,13 @@
         <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C176">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D176" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3047,13 +3062,13 @@
         <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C177">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3061,13 +3076,13 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C178">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3075,13 +3090,13 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C179">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3089,13 +3104,13 @@
         <v>15</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C180">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3103,223 +3118,223 @@
         <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C181">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>16</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B182" t="s">
+        <v>31</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>16</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>32</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>16</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B184" t="s">
+        <v>33</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D184" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>16</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>34</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D185" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>16</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>35</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D186" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>16</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B187" t="s">
+        <v>36</v>
       </c>
       <c r="C187">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D187" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>16</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
       </c>
       <c r="C188">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>16</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B189" t="s">
+        <v>26</v>
       </c>
       <c r="C189">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D189" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>16</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B190" t="s">
+        <v>27</v>
       </c>
       <c r="C190">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D190" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>16</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D191" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>16</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>29</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D192" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>16</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D193" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>16</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B194" t="s">
+        <v>50</v>
       </c>
       <c r="C194">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D194" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>16</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B195" t="s">
+        <v>51</v>
       </c>
       <c r="C195">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D195" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>16</v>
-      </c>
-      <c r="B196" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B196" t="s">
+        <v>52</v>
+      </c>
       <c r="C196">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D196" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,13 +3342,13 @@
         <v>16</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3341,13 +3356,13 @@
         <v>16</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C198">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3355,13 +3370,13 @@
         <v>16</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C199">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3369,13 +3384,13 @@
         <v>16</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C200">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3383,13 +3398,13 @@
         <v>16</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C201">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D201" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,13 +3412,13 @@
         <v>16</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3411,13 +3426,13 @@
         <v>16</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C203">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3425,13 +3440,13 @@
         <v>16</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C204">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3439,13 +3454,13 @@
         <v>16</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C205">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3453,13 +3468,13 @@
         <v>16</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C206">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3467,13 +3482,13 @@
         <v>16</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C207">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3481,13 +3496,13 @@
         <v>16</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C208">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3495,13 +3510,13 @@
         <v>16</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C209">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3509,13 +3524,13 @@
         <v>16</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C210">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3523,13 +3538,13 @@
         <v>16</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C211">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,13 +3552,13 @@
         <v>16</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C212">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3551,13 +3566,13 @@
         <v>16</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C213">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D213" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3565,13 +3580,13 @@
         <v>16</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C214">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3579,13 +3594,13 @@
         <v>16</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C215">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D215" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3593,13 +3608,13 @@
         <v>16</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C216">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D216" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -3607,265 +3622,265 @@
         <v>16</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C217">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D217" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>17</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>17</v>
-      </c>
-      <c r="B219" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>17</v>
-      </c>
-      <c r="B220" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>17</v>
-      </c>
-      <c r="B221" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D221" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>17</v>
-      </c>
-      <c r="B222" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D222" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>17</v>
-      </c>
-      <c r="B223" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C223">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D223" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>17</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C224">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D224" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>17</v>
-      </c>
-      <c r="B225" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C225">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D225" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>17</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C226">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D226" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>17</v>
-      </c>
-      <c r="B227" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C227">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D227" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>17</v>
-      </c>
-      <c r="B228" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C228">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D228" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>17</v>
-      </c>
-      <c r="B229" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C229">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D229" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>17</v>
-      </c>
-      <c r="B230" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C230">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D230" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>17</v>
-      </c>
-      <c r="B231" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C231">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D231" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>17</v>
-      </c>
-      <c r="B232" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C232">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D232" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>17</v>
-      </c>
-      <c r="B233" t="s">
         <v>16</v>
       </c>
+      <c r="B233" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C233">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D233" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>17</v>
-      </c>
-      <c r="B234" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C234">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D234" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>17</v>
-      </c>
-      <c r="B235" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C235">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D235" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -3873,13 +3888,13 @@
         <v>17</v>
       </c>
       <c r="B236" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,13 +3902,13 @@
         <v>17</v>
       </c>
       <c r="B237" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C237">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -3901,13 +3916,13 @@
         <v>17</v>
       </c>
       <c r="B238" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C238">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3915,13 +3930,13 @@
         <v>17</v>
       </c>
       <c r="B239" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3929,13 +3944,13 @@
         <v>17</v>
       </c>
       <c r="B240" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C240">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3943,13 +3958,13 @@
         <v>17</v>
       </c>
       <c r="B241" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C241">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D241" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3957,13 +3972,13 @@
         <v>17</v>
       </c>
       <c r="B242" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C242">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,13 +3986,13 @@
         <v>17</v>
       </c>
       <c r="B243" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C243">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -3985,13 +4000,13 @@
         <v>17</v>
       </c>
       <c r="B244" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C244">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -3999,13 +4014,13 @@
         <v>17</v>
       </c>
       <c r="B245" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C245">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D245" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -4013,13 +4028,13 @@
         <v>17</v>
       </c>
       <c r="B246" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C246">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D246" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -4027,13 +4042,13 @@
         <v>17</v>
       </c>
       <c r="B247" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C247">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -4041,13 +4056,13 @@
         <v>17</v>
       </c>
       <c r="B248" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C248">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -4055,13 +4070,13 @@
         <v>17</v>
       </c>
       <c r="B249" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C249">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,13 +4084,13 @@
         <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C250">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -4083,13 +4098,13 @@
         <v>17</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C251">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -4097,13 +4112,13 @@
         <v>17</v>
       </c>
       <c r="B252" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C252">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D252" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -4111,307 +4126,307 @@
         <v>17</v>
       </c>
       <c r="B253" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C253">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D253" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B254" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D254" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B255" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D256" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B257" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D258" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C259">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C260">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D260" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C261">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D261" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C262">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D262" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C263">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D263" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C264">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D264" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C265">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D265" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C266">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D266" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C267">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D267" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C268">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D268" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C269">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D269" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C270">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D270" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B271" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C271">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D271" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B272" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C272">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D272" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C273">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D273" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C274">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D274" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -4419,13 +4434,13 @@
         <v>18</v>
       </c>
       <c r="B275" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C275">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -4433,13 +4448,13 @@
         <v>18</v>
       </c>
       <c r="B276" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C276">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -4447,13 +4462,13 @@
         <v>18</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C277">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,13 +4476,13 @@
         <v>18</v>
       </c>
       <c r="B278" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C278">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D278" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -4475,13 +4490,13 @@
         <v>18</v>
       </c>
       <c r="B279" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C279">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D279" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,13 +4504,13 @@
         <v>18</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C280">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -4503,13 +4518,13 @@
         <v>18</v>
       </c>
       <c r="B281" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C281">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -4517,13 +4532,13 @@
         <v>18</v>
       </c>
       <c r="B282" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C282">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D282" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -4531,13 +4546,13 @@
         <v>18</v>
       </c>
       <c r="B283" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C283">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D283" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -4545,13 +4560,13 @@
         <v>18</v>
       </c>
       <c r="B284" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C284">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D284" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,13 +4574,13 @@
         <v>18</v>
       </c>
       <c r="B285" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C285">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D285" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,13 +4588,13 @@
         <v>18</v>
       </c>
       <c r="B286" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C286">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D286" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -4587,13 +4602,13 @@
         <v>18</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C287">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D287" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -4601,13 +4616,13 @@
         <v>18</v>
       </c>
       <c r="B288" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C288">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D288" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,349 +4630,349 @@
         <v>18</v>
       </c>
       <c r="B289" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C289">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D289" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B290" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D290" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B291" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C291">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D291" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C292">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D292" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
+        <v>18</v>
+      </c>
+      <c r="B293" t="s">
         <v>19</v>
       </c>
-      <c r="B293" t="s">
-        <v>4</v>
-      </c>
       <c r="C293">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D293" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C294">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D294" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C295">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D295" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C296">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C297">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C298">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C299">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D299" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C300">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D300" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C301">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D301" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C302">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D302" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C303">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D303" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C304">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D304" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C305">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D305" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B306" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C306">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D306" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B307" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C307">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D307" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B308" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C308">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D308" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B309" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C309">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D309" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B310" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C310">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D310" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B311" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C311">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D311" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B312" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C312">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D312" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B313" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C313">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D313" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -4965,13 +4980,13 @@
         <v>19</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C314">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -4979,13 +4994,13 @@
         <v>19</v>
       </c>
       <c r="B315" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C315">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D315" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -4993,13 +5008,13 @@
         <v>19</v>
       </c>
       <c r="B316" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C316">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D316" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -5007,13 +5022,13 @@
         <v>19</v>
       </c>
       <c r="B317" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C317">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D317" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -5021,13 +5036,13 @@
         <v>19</v>
       </c>
       <c r="B318" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C318">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D318" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -5035,13 +5050,13 @@
         <v>19</v>
       </c>
       <c r="B319" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C319">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D319" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -5049,13 +5064,13 @@
         <v>19</v>
       </c>
       <c r="B320" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C320">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D320" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -5063,13 +5078,13 @@
         <v>19</v>
       </c>
       <c r="B321" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C321">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D321" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -5077,13 +5092,13 @@
         <v>19</v>
       </c>
       <c r="B322" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C322">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -5091,13 +5106,13 @@
         <v>19</v>
       </c>
       <c r="B323" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C323">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -5105,13 +5120,13 @@
         <v>19</v>
       </c>
       <c r="B324" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C324">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D324" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -5119,391 +5134,391 @@
         <v>19</v>
       </c>
       <c r="B325" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C325">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D325" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B326" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D326" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B327" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C327">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D327" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C328">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D328" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B329" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D329" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B330" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C330">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D330" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C331">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D331" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B332" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C332">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D332" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C333">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D333" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C334">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D334" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C335">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D335" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
+        <v>19</v>
+      </c>
+      <c r="B336" t="s">
         <v>23</v>
       </c>
-      <c r="B336" t="s">
-        <v>11</v>
-      </c>
       <c r="C336">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D336" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C337">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D337" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C338">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D338" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C339">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D339" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C340">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D340" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B341" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C341">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D341" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B342" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C342">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D342" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B343" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C343">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D343" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B344" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C344">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D344" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B345" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C345">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D345" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B346" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C346">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D346" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B347" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C347">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D347" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B348" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C348">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D348" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B349" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C349">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D349" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B350" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C350">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D350" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B351" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C351">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D351" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B352" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C352">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D352" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -5511,13 +5526,13 @@
         <v>23</v>
       </c>
       <c r="B353" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C353">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D353" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -5525,13 +5540,13 @@
         <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C354">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D354" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -5539,13 +5554,13 @@
         <v>23</v>
       </c>
       <c r="B355" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C355">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D355" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -5553,13 +5568,13 @@
         <v>23</v>
       </c>
       <c r="B356" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C356">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D356" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -5567,13 +5582,13 @@
         <v>23</v>
       </c>
       <c r="B357" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C357">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D357" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -5581,13 +5596,13 @@
         <v>23</v>
       </c>
       <c r="B358" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C358">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D358" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -5595,13 +5610,13 @@
         <v>23</v>
       </c>
       <c r="B359" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C359">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D359" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -5609,13 +5624,13 @@
         <v>23</v>
       </c>
       <c r="B360" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C360">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D360" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -5623,13 +5638,433 @@
         <v>23</v>
       </c>
       <c r="B361" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361">
+        <v>9</v>
+      </c>
+      <c r="D361" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>23</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362">
+        <v>10</v>
+      </c>
+      <c r="D362" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>23</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>23</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364">
+        <v>12</v>
+      </c>
+      <c r="D364" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>23</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365">
+        <v>13</v>
+      </c>
+      <c r="D365" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>23</v>
+      </c>
+      <c r="B366" t="s">
+        <v>14</v>
+      </c>
+      <c r="C366">
+        <v>14</v>
+      </c>
+      <c r="D366" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>23</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+      <c r="C367">
+        <v>15</v>
+      </c>
+      <c r="D367" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>23</v>
+      </c>
+      <c r="B368" t="s">
+        <v>16</v>
+      </c>
+      <c r="C368">
+        <v>16</v>
+      </c>
+      <c r="D368" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>23</v>
+      </c>
+      <c r="B369" t="s">
+        <v>17</v>
+      </c>
+      <c r="C369">
+        <v>17</v>
+      </c>
+      <c r="D369" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>23</v>
+      </c>
+      <c r="B370" t="s">
+        <v>18</v>
+      </c>
+      <c r="C370">
+        <v>18</v>
+      </c>
+      <c r="D370" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>23</v>
+      </c>
+      <c r="B371" t="s">
+        <v>19</v>
+      </c>
+      <c r="C371">
+        <v>19</v>
+      </c>
+      <c r="D371" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>23</v>
+      </c>
+      <c r="B372" t="s">
+        <v>20</v>
+      </c>
+      <c r="C372">
+        <v>20</v>
+      </c>
+      <c r="D372" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>23</v>
+      </c>
+      <c r="B373" t="s">
+        <v>21</v>
+      </c>
+      <c r="C373">
+        <v>21</v>
+      </c>
+      <c r="D373" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>23</v>
+      </c>
+      <c r="B374" t="s">
+        <v>22</v>
+      </c>
+      <c r="C374">
+        <v>22</v>
+      </c>
+      <c r="D374" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>23</v>
+      </c>
+      <c r="B375" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375">
+        <v>23</v>
+      </c>
+      <c r="D375" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>23</v>
+      </c>
+      <c r="B376" t="s">
+        <v>24</v>
+      </c>
+      <c r="C376">
+        <v>24</v>
+      </c>
+      <c r="D376" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>23</v>
+      </c>
+      <c r="B377" t="s">
+        <v>31</v>
+      </c>
+      <c r="C377">
+        <v>25</v>
+      </c>
+      <c r="D377" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>23</v>
+      </c>
+      <c r="B378" t="s">
+        <v>32</v>
+      </c>
+      <c r="C378">
+        <v>26</v>
+      </c>
+      <c r="D378" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>23</v>
+      </c>
+      <c r="B379" t="s">
+        <v>33</v>
+      </c>
+      <c r="C379">
+        <v>27</v>
+      </c>
+      <c r="D379" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>23</v>
+      </c>
+      <c r="B380" t="s">
+        <v>34</v>
+      </c>
+      <c r="C380">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>23</v>
+      </c>
+      <c r="B381" t="s">
+        <v>35</v>
+      </c>
+      <c r="C381">
+        <v>29</v>
+      </c>
+      <c r="D381" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>23</v>
+      </c>
+      <c r="B382" t="s">
+        <v>36</v>
+      </c>
+      <c r="C382">
         <v>30</v>
       </c>
-      <c r="C361">
+      <c r="D382" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>23</v>
+      </c>
+      <c r="B383" t="s">
+        <v>25</v>
+      </c>
+      <c r="C383">
+        <v>31</v>
+      </c>
+      <c r="D383" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>23</v>
+      </c>
+      <c r="B384" t="s">
+        <v>26</v>
+      </c>
+      <c r="C384">
+        <v>32</v>
+      </c>
+      <c r="D384" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>23</v>
+      </c>
+      <c r="B385" t="s">
+        <v>27</v>
+      </c>
+      <c r="C385">
+        <v>33</v>
+      </c>
+      <c r="D385" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>23</v>
+      </c>
+      <c r="B386" t="s">
+        <v>28</v>
+      </c>
+      <c r="C386">
+        <v>34</v>
+      </c>
+      <c r="D386" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>23</v>
+      </c>
+      <c r="B387" t="s">
+        <v>29</v>
+      </c>
+      <c r="C387">
+        <v>35</v>
+      </c>
+      <c r="D387" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>23</v>
+      </c>
+      <c r="B388" t="s">
+        <v>30</v>
+      </c>
+      <c r="C388">
         <v>36</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D388" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>23</v>
+      </c>
+      <c r="B389" t="s">
+        <v>50</v>
+      </c>
+      <c r="C389">
+        <v>37</v>
+      </c>
+      <c r="D389" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>23</v>
+      </c>
+      <c r="B390" t="s">
+        <v>51</v>
+      </c>
+      <c r="C390">
+        <v>38</v>
+      </c>
+      <c r="D390" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>23</v>
+      </c>
+      <c r="B391" t="s">
+        <v>52</v>
+      </c>
+      <c r="C391">
+        <v>39</v>
+      </c>
+      <c r="D391" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
